--- a/123/123.xlsx
+++ b/123/123.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC71B0A-0467-472F-A9A6-128222F684D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACB89C5-52E7-4416-87D9-F55812884B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>No.</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>Q02</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>H04</t>
   </si>
 </sst>
 </file>
@@ -566,7 +578,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,10 +607,18 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -622,10 +642,19 @@
         <f>(8/15)*10</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>(8/10)*10</f>
+        <v>8</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -656,10 +685,18 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -692,10 +729,19 @@
         <f>(15/15)*10</f>
         <v>10</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f>(9/10)*10</f>
+        <v>9</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -727,10 +773,18 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -763,10 +817,19 @@
         <f>(12/15)*10</f>
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f>(9/10)*10</f>
+        <v>9</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -797,10 +860,18 @@
       <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -943,10 +1014,18 @@
       <c r="C12" s="6">
         <v>0</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -977,10 +1056,18 @@
       <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
       <c r="J13" s="6"/>
@@ -1039,10 +1126,18 @@
       <c r="C15" s="6">
         <v>0</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1097,7 +1192,7 @@
       </c>
       <c r="B17" s="8">
         <f>COUNTA(B1:Q1) * 10</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1155,21 +1250,21 @@
       </c>
       <c r="B22" s="13">
         <f>(SUM(B2:R2)/B17) * 40</f>
-        <v>22.666666666666664</v>
+        <v>22.888888888888886</v>
       </c>
       <c r="C22" s="14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D22" s="14">
         <v>0</v>
       </c>
       <c r="E22" s="15">
         <f>B22+C22+D22</f>
-        <v>22.666666666666664</v>
+        <v>30.888888888888886</v>
       </c>
       <c r="F22" s="16">
         <f t="shared" ref="F22:F35" si="0">E22</f>
-        <v>22.666666666666664</v>
+        <v>30.888888888888886</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -1181,18 +1276,18 @@
         <v>0</v>
       </c>
       <c r="C23" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="14">
         <v>0</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" ref="E23:E35" si="1">B23+C23+D23</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -1201,21 +1296,21 @@
       </c>
       <c r="B24" s="13">
         <f>(SUM(B4:R4)/B17) * 40</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C24" s="14">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="D24" s="14">
         <v>0</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>36.5</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -1224,21 +1319,21 @@
       </c>
       <c r="B25" s="13">
         <f>(SUM(B5:R5)/B17) * 40</f>
-        <v>11.200000000000001</v>
+        <v>3.7333333333333334</v>
       </c>
       <c r="C25" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="1"/>
-        <v>11.200000000000001</v>
+        <v>10.733333333333334</v>
       </c>
       <c r="F25" s="16">
         <f t="shared" si="0"/>
-        <v>11.200000000000001</v>
+        <v>10.733333333333334</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -1247,21 +1342,21 @@
       </c>
       <c r="B26" s="13">
         <f>(SUM(B6:R6)/B17) * 40</f>
-        <v>30.4</v>
+        <v>31.466666666666669</v>
       </c>
       <c r="C26" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D26" s="14">
         <v>0</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="1"/>
-        <v>30.4</v>
+        <v>40.466666666666669</v>
       </c>
       <c r="F26" s="16">
         <f t="shared" si="0"/>
-        <v>30.4</v>
+        <v>40.466666666666669</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -1273,18 +1368,18 @@
         <v>0</v>
       </c>
       <c r="C27" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27" s="14">
         <v>0</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -1348,7 +1443,7 @@
       </c>
       <c r="B33" s="13">
         <f>(SUM(B13:R13)/B17) * 40</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C33" s="14">
         <v>0</v>
@@ -1358,11 +1453,11 @@
       </c>
       <c r="E33" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1382,18 +1477,18 @@
         <v>0</v>
       </c>
       <c r="C35" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D35" s="14">
         <v>0</v>
       </c>
       <c r="E35" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F35" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">

--- a/123/123.xlsx
+++ b/123/123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\123\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alameheli\Desktop\scores\mft-scores\123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACB89C5-52E7-4416-87D9-F55812884B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FC07BD-1A07-4EE7-B234-10A2FCDFF137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web 123" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -577,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,15 +1305,15 @@
         <v>8.5</v>
       </c>
       <c r="D24" s="14">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>81.5</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" si="0"/>
-        <v>36.5</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -1348,15 +1351,15 @@
         <v>9</v>
       </c>
       <c r="D26" s="14">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="1"/>
-        <v>40.466666666666669</v>
+        <v>96.466666666666669</v>
       </c>
       <c r="F26" s="16">
         <f t="shared" si="0"/>
-        <v>40.466666666666669</v>
+        <v>96.466666666666669</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -1449,15 +1452,15 @@
         <v>0</v>
       </c>
       <c r="D33" s="14">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F33" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
